--- a/2.21.21_algorithm_overviews.xlsx
+++ b/2.21.21_algorithm_overviews.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\makow\Documents\GitHub\UniRep\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA71C055-FB8D-4094-B7A4-7252C32D89A4}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1FA328E0-69A0-41E3-8554-75F4615334C7}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{87304BC6-D06C-4E72-9B46-76A720B9FA23}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="5" activeTab="7" xr2:uid="{87304BC6-D06C-4E72-9B46-76A720B9FA23}"/>
   </bookViews>
   <sheets>
     <sheet name="Yeast Binding ANT Correl" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="20">
   <si>
     <t>OHE</t>
   </si>
@@ -122,18 +122,12 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -148,10 +142,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -470,23 +463,23 @@
   <dimension ref="A1:I12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:I2"/>
+      <selection activeCell="B2" sqref="B2:I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E1" t="s">
         <v>1</v>
-      </c>
-      <c r="D1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" t="s">
-        <v>17</v>
       </c>
       <c r="F1" t="s">
         <v>3</v>
@@ -506,16 +499,16 @@
         <v>6</v>
       </c>
       <c r="B2">
+        <v>-6.4289888953828096E-3</v>
+      </c>
+      <c r="C2">
+        <v>0.22185856224430101</v>
+      </c>
+      <c r="D2">
         <v>0.86865241844769403</v>
       </c>
-      <c r="C2">
-        <v>-0.87138807649043803</v>
-      </c>
-      <c r="D2">
-        <v>-6.4289888953828096E-3</v>
-      </c>
       <c r="E2">
-        <v>0.22185856224430101</v>
+        <v>-0.86359505061867203</v>
       </c>
       <c r="F2">
         <v>0.826807129533917</v>
@@ -534,11 +527,8 @@
       <c r="A3" t="s">
         <v>7</v>
       </c>
-      <c r="B3">
-        <v>0.71558766323978795</v>
-      </c>
-      <c r="C3">
-        <v>0.71458738538482902</v>
+      <c r="E3">
+        <v>0.73758036236119195</v>
       </c>
       <c r="F3">
         <v>-0.66108170444979997</v>
@@ -557,14 +547,11 @@
       <c r="A4" t="s">
         <v>8</v>
       </c>
-      <c r="B4">
-        <v>0.75018315018314996</v>
-      </c>
-      <c r="C4">
-        <v>0.75173992673992596</v>
+      <c r="E4">
+        <v>0.49070718877849201</v>
       </c>
       <c r="F4">
-        <v>-0.62823521335633004</v>
+        <v>0.62823521335633004</v>
       </c>
       <c r="G4">
         <v>-5.8699633699633699E-2</v>
@@ -580,11 +567,8 @@
       <c r="A5" t="s">
         <v>9</v>
       </c>
-      <c r="B5">
-        <v>0.81424148606811098</v>
-      </c>
-      <c r="C5">
-        <v>0.81424148606811098</v>
+      <c r="E5">
+        <v>0.73664523670368198</v>
       </c>
       <c r="F5">
         <v>-0.72342621259029904</v>
@@ -603,11 +587,8 @@
       <c r="A6" t="s">
         <v>10</v>
       </c>
-      <c r="B6">
-        <v>0.77667140825035497</v>
-      </c>
-      <c r="C6">
-        <v>0.76481744902797499</v>
+      <c r="E6">
+        <v>0.63974284044418395</v>
       </c>
       <c r="F6">
         <v>-0.80203888098624898</v>
@@ -626,11 +607,8 @@
       <c r="A7" t="s">
         <v>11</v>
       </c>
-      <c r="B7">
-        <v>0.78263467941603304</v>
-      </c>
-      <c r="C7">
-        <v>0.779390420899854</v>
+      <c r="E7">
+        <v>0.69655172413793098</v>
       </c>
       <c r="F7">
         <v>0.82310253564415603</v>
@@ -649,11 +627,8 @@
       <c r="A8" t="s">
         <v>12</v>
       </c>
-      <c r="B8">
-        <v>0.80087881591119303</v>
-      </c>
-      <c r="C8">
-        <v>0.79752543940795495</v>
+      <c r="E8">
+        <v>0.66598480420806505</v>
       </c>
       <c r="F8">
         <v>0.78434320074005504</v>
@@ -672,11 +647,8 @@
       <c r="A9" t="s">
         <v>13</v>
       </c>
-      <c r="B9">
-        <v>0.86071428571428499</v>
-      </c>
-      <c r="C9">
-        <v>0.88571428571428501</v>
+      <c r="E9">
+        <v>0.66931618936294501</v>
       </c>
       <c r="F9">
         <v>0.85714285714285698</v>
@@ -695,11 +667,8 @@
       <c r="A10" t="s">
         <v>14</v>
       </c>
-      <c r="B10">
-        <v>0.88644688644688596</v>
-      </c>
-      <c r="C10">
-        <v>0.88217338217338204</v>
+      <c r="E10">
+        <v>0.66370543541788396</v>
       </c>
       <c r="F10">
         <v>0.91589071438019298</v>
@@ -718,17 +687,17 @@
       <c r="A12" t="s">
         <v>15</v>
       </c>
-      <c r="B12" s="1">
+      <c r="B12">
+        <v>0.96145651840296298</v>
+      </c>
+      <c r="C12">
+        <v>9.1260850046813002E-2</v>
+      </c>
+      <c r="D12" s="1">
         <v>1.23404540599534E-39</v>
       </c>
-      <c r="C12" s="1">
+      <c r="E12" s="1">
         <v>3.65301813462639E-40</v>
-      </c>
-      <c r="D12">
-        <v>0.96145651840296298</v>
-      </c>
-      <c r="E12">
-        <v>9.1260850046813002E-2</v>
       </c>
       <c r="F12" s="1">
         <v>8.8956196057992506E-33</v>
@@ -754,23 +723,23 @@
   <dimension ref="A1:I12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:I2"/>
+      <selection activeCell="B2" sqref="B2:I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E1" t="s">
         <v>1</v>
-      </c>
-      <c r="D1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" t="s">
-        <v>17</v>
       </c>
       <c r="F1" t="s">
         <v>3</v>
@@ -790,16 +759,16 @@
         <v>6</v>
       </c>
       <c r="B2">
+        <v>-0.54522030407017597</v>
+      </c>
+      <c r="C2">
+        <v>-0.13131525206140399</v>
+      </c>
+      <c r="D2">
         <v>0.66947731533558297</v>
       </c>
-      <c r="C2">
-        <v>0.68092988376452901</v>
-      </c>
-      <c r="D2">
-        <v>-0.54522030407017597</v>
-      </c>
       <c r="E2">
-        <v>-0.13131525206140399</v>
+        <v>0.67640044994375703</v>
       </c>
       <c r="F2">
         <v>-0.58500962882791496</v>
@@ -818,11 +787,8 @@
       <c r="A3" t="s">
         <v>7</v>
       </c>
-      <c r="B3">
-        <v>0.50775215337593704</v>
-      </c>
-      <c r="C3">
-        <v>-0.495582106140594</v>
+      <c r="E3">
+        <v>-0.47779076563413198</v>
       </c>
       <c r="F3">
         <v>-0.33668153214602498</v>
@@ -841,11 +807,8 @@
       <c r="A4" t="s">
         <v>8</v>
       </c>
-      <c r="B4">
-        <v>0.531272893772893</v>
-      </c>
-      <c r="C4">
-        <v>-0.55673076923076903</v>
+      <c r="E4">
+        <v>-0.35312682641729898</v>
       </c>
       <c r="F4">
         <v>-0.40355315425210603</v>
@@ -864,14 +827,11 @@
       <c r="A5" t="s">
         <v>9</v>
       </c>
-      <c r="B5">
-        <v>0.66769865841073195</v>
-      </c>
-      <c r="C5">
-        <v>-0.70278637770897801</v>
+      <c r="E5">
+        <v>0.46732904734073599</v>
       </c>
       <c r="F5">
-        <v>-0.48194014447884398</v>
+        <v>-0.49845201238390002</v>
       </c>
       <c r="G5">
         <v>0.159958720330237</v>
@@ -887,11 +847,8 @@
       <c r="A6" t="s">
         <v>10</v>
       </c>
-      <c r="B6">
-        <v>0.52939781887150295</v>
-      </c>
-      <c r="C6">
-        <v>-0.73020388809862402</v>
+      <c r="E6">
+        <v>-0.34921098772647502</v>
       </c>
       <c r="F6">
         <v>-0.63394973921289699</v>
@@ -910,11 +867,8 @@
       <c r="A7" t="s">
         <v>11</v>
       </c>
-      <c r="B7">
-        <v>0.65149833518312905</v>
-      </c>
-      <c r="C7">
-        <v>-0.65243746264833902</v>
+      <c r="E7">
+        <v>-0.56803039158386903</v>
       </c>
       <c r="F7">
         <v>-0.70596772816528597</v>
@@ -933,11 +887,8 @@
       <c r="A8" t="s">
         <v>12</v>
       </c>
-      <c r="B8">
-        <v>0.63297872340425498</v>
-      </c>
-      <c r="C8">
-        <v>0.62222479185938895</v>
+      <c r="E8">
+        <v>-0.48790181180596098</v>
       </c>
       <c r="F8">
         <v>-0.56903330249768702</v>
@@ -956,11 +907,8 @@
       <c r="A9" t="s">
         <v>13</v>
       </c>
-      <c r="B9">
-        <v>0.79285714285714204</v>
-      </c>
-      <c r="C9">
-        <v>-0.79285714285714204</v>
+      <c r="E9">
+        <v>-0.40713033313851499</v>
       </c>
       <c r="F9">
         <v>-0.83214285714285696</v>
@@ -979,11 +927,8 @@
       <c r="A10" t="s">
         <v>14</v>
       </c>
-      <c r="B10">
-        <v>0.62942612942612897</v>
-      </c>
-      <c r="C10">
-        <v>-0.62637362637362604</v>
+      <c r="E10">
+        <v>-0.35008766803039099</v>
       </c>
       <c r="F10">
         <v>-0.60784613744365501</v>
@@ -1003,16 +948,16 @@
         <v>15</v>
       </c>
       <c r="B12" s="1">
+        <v>1.52781639504217E-6</v>
+      </c>
+      <c r="C12">
+        <v>0.28578774920134697</v>
+      </c>
+      <c r="D12" s="1">
         <v>1.0350057566653701E-17</v>
       </c>
-      <c r="C12" s="1">
+      <c r="E12" s="1">
         <v>1.74729214531812E-18</v>
-      </c>
-      <c r="D12" s="1">
-        <v>1.52781639504217E-6</v>
-      </c>
-      <c r="E12">
-        <v>0.28578774920134697</v>
       </c>
       <c r="F12" s="1">
         <v>6.3260543898203499E-13</v>
@@ -1036,24 +981,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FCB835AD-FEA6-4A49-B5D7-AA8D1F17198B}">
   <dimension ref="A1:I3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B29" sqref="B29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E1" t="s">
         <v>1</v>
-      </c>
-      <c r="D1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" t="s">
-        <v>19</v>
       </c>
       <c r="F1" t="s">
         <v>3</v>
@@ -1073,16 +1018,16 @@
         <v>6</v>
       </c>
       <c r="B2">
+        <v>0.24277319851311399</v>
+      </c>
+      <c r="C2">
+        <v>0.320136217851204</v>
+      </c>
+      <c r="D2">
         <v>0.77021357646762301</v>
       </c>
-      <c r="C2">
+      <c r="E2">
         <v>-0.790497181992739</v>
-      </c>
-      <c r="D2">
-        <v>0.24277319851311399</v>
-      </c>
-      <c r="E2">
-        <v>0.320136217851204</v>
       </c>
       <c r="F2">
         <v>0.68560464786516895</v>
@@ -1102,16 +1047,16 @@
         <v>15</v>
       </c>
       <c r="B3" s="1">
+        <v>0.126161176233797</v>
+      </c>
+      <c r="C3">
+        <v>4.1297588715118801E-2</v>
+      </c>
+      <c r="D3" s="1">
         <v>6.2096359509655998E-9</v>
       </c>
-      <c r="C3" s="1">
+      <c r="E3" s="1">
         <v>1.30045897126149E-9</v>
-      </c>
-      <c r="D3" s="1">
-        <v>0.126161176233797</v>
-      </c>
-      <c r="E3">
-        <v>4.1297588715118801E-2</v>
       </c>
       <c r="F3" s="1">
         <v>1.0519810214810299E-6</v>
@@ -1136,23 +1081,23 @@
   <dimension ref="A1:I3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="B2" sqref="B2:I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E1" t="s">
         <v>1</v>
-      </c>
-      <c r="D1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" t="s">
-        <v>19</v>
       </c>
       <c r="F1" t="s">
         <v>3</v>
@@ -1172,16 +1117,16 @@
         <v>6</v>
       </c>
       <c r="B2">
+        <v>-0.203515865009403</v>
+      </c>
+      <c r="C2">
+        <v>-0.186173656040034</v>
+      </c>
+      <c r="D2">
         <v>0.75598562337860298</v>
       </c>
-      <c r="C2">
+      <c r="E2">
         <v>0.73983689918323303</v>
-      </c>
-      <c r="D2">
-        <v>-0.203515865009403</v>
-      </c>
-      <c r="E2">
-        <v>-0.186173656040034</v>
       </c>
       <c r="F2">
         <v>-0.67721364896048997</v>
@@ -1201,16 +1146,16 @@
         <v>15</v>
       </c>
       <c r="B3" s="1">
+        <v>0.32919050425128699</v>
+      </c>
+      <c r="C3">
+        <v>0.37290909738153299</v>
+      </c>
+      <c r="D3" s="1">
         <v>1.69692041223171E-8</v>
       </c>
-      <c r="C3" s="1">
+      <c r="E3" s="1">
         <v>4.9069222903398098E-8</v>
-      </c>
-      <c r="D3" s="1">
-        <v>0.32919050425128699</v>
-      </c>
-      <c r="E3">
-        <v>0.37290909738153299</v>
       </c>
       <c r="F3" s="1">
         <v>1.5959109796035101E-6</v>
@@ -1232,79 +1177,64 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F90270B-2EB6-4245-B8BC-C2F6D8F60484}">
-  <dimension ref="A1:H4"/>
+  <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+      <selection activeCell="C1" sqref="B1:C1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D1" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="3">
+      <c r="B2" s="2">
         <v>0.16532989557349301</v>
       </c>
-      <c r="F2">
+      <c r="C2">
         <v>6.0154493359976399E-2</v>
       </c>
-      <c r="G2">
+      <c r="D2">
         <v>0.174107533611705</v>
       </c>
-      <c r="H2">
+      <c r="E2">
         <v>0.222987788593522</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="2"/>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
-      <c r="E3" s="3">
+      <c r="B3" s="2">
         <v>0.28936903456690999</v>
       </c>
-      <c r="F3">
+      <c r="C3">
         <v>0.70158396579371096</v>
       </c>
-      <c r="G3">
+      <c r="D3">
         <v>0.26416049804999803</v>
       </c>
-      <c r="H3">
+      <c r="E3">
         <v>0.15062988202772601</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="G4" t="s">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="D4" t="s">
         <v>18</v>
       </c>
     </row>
@@ -1315,74 +1245,59 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2560F092-4275-403F-B9D8-655D1862D1B9}">
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2:E3"/>
+      <selection activeCell="C1" sqref="B1:C1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D1" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
+      <c r="B2">
+        <v>-0.25714624210917603</v>
+      </c>
+      <c r="C2">
+        <v>-8.0895205545479607E-3</v>
+      </c>
+      <c r="D2">
+        <v>0.13532936254804501</v>
+      </c>
       <c r="E2">
-        <v>-0.25714624210917603</v>
-      </c>
-      <c r="F2">
-        <v>-8.0895205545479607E-3</v>
-      </c>
-      <c r="G2">
-        <v>0.13532936254804501</v>
-      </c>
-      <c r="H2">
         <v>0.25523571394536299</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="2"/>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
+      <c r="B3">
+        <v>9.5981111083000004E-2</v>
+      </c>
+      <c r="C3">
+        <v>0.95893969289420999</v>
+      </c>
+      <c r="D3">
+        <v>0.38689899315118897</v>
+      </c>
       <c r="E3">
-        <v>9.5981111083000004E-2</v>
-      </c>
-      <c r="F3">
-        <v>0.95893969289420999</v>
-      </c>
-      <c r="G3">
-        <v>0.38689899315118897</v>
-      </c>
-      <c r="H3">
         <v>9.8562929218997605E-2</v>
       </c>
     </row>
@@ -1393,74 +1308,59 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6ADA49A4-1062-4B5F-ADDE-647598967F0C}">
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2:E3"/>
+      <selection activeCell="B2" sqref="B2:E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D1" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="3">
+      <c r="B2" s="2">
         <v>6.6996420167482001E-2</v>
       </c>
-      <c r="F2">
+      <c r="C2">
         <v>3.23050089601934E-2</v>
       </c>
-      <c r="G2">
+      <c r="D2">
         <v>-2.40918710889578E-2</v>
       </c>
-      <c r="H2">
+      <c r="E2">
         <v>0.29553607773329499</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="2"/>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
-      <c r="E3" s="3">
+      <c r="B3" s="2">
         <v>0.62370983767534205</v>
       </c>
-      <c r="F3">
+      <c r="C3">
         <v>0.81315510943270297</v>
       </c>
-      <c r="G3">
+      <c r="D3">
         <v>0.86010043964831095</v>
       </c>
-      <c r="H3">
+      <c r="E3">
         <v>2.7010832313183401E-2</v>
       </c>
     </row>
@@ -1471,74 +1371,59 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A5CADA0D-A505-40E8-ADFC-2FD19E20B327}">
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:E3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D1" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="3">
+      <c r="B2" s="2">
         <v>-0.21501043857868599</v>
       </c>
-      <c r="F2">
+      <c r="C2">
         <v>2.4905931694507499E-2</v>
       </c>
-      <c r="G2">
+      <c r="D2">
         <v>0.13154300462277599</v>
       </c>
-      <c r="H2">
+      <c r="E2">
         <v>0.23978801544890499</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="2"/>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
-      <c r="E3" s="3">
+      <c r="B3" s="2">
         <v>0.111525086714709</v>
       </c>
-      <c r="F3">
+      <c r="C3">
         <v>0.85542305244165595</v>
       </c>
-      <c r="G3">
+      <c r="D3">
         <v>0.33385234779757</v>
       </c>
-      <c r="H3">
+      <c r="E3">
         <v>7.5074893359560094E-2</v>
       </c>
     </row>
